--- a/document/图纸目录.xlsx
+++ b/document/图纸目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="438">
   <si>
     <t>水工</t>
   </si>
@@ -269,26 +269,6 @@
     <t>邦山取水泵站沉沙池挡墙结构钢筋图</t>
   </si>
   <si>
-    <t>泵站稳定计算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构计算(底板、水下墙、板梁柱)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挡墙稳定、结构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>邦山取水泵站进水闸布置图</t>
   </si>
   <si>
@@ -319,10 +299,6 @@
     <t>邦山取水泵站进水闸启闭机室楼梯结构钢筋图</t>
   </si>
   <si>
-    <t>闸室稳定、结构计算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>华湖加压泵站枢纽布置图</t>
   </si>
   <si>
@@ -552,18 +528,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>隧洞衬砌计算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶管结构计算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弯头、镇墩、三通结构计算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>邦山~华湖输水管线布置图(1/12~12/12)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -787,30 +751,6 @@
   </si>
   <si>
     <t>分水口钢筋图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>量水阀室结构计算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>石榴潭进水口闸稳定、结构计算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>葫芦潭出水口闸稳定、结构计算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>葫芦潭进水口闸稳定、结构计算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单向调压塔稳定、结构计算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双向调压塔稳定、结构计算</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1455,19 +1395,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周理想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张武</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>秦晓川</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>严振瑞</t>
+    <t>周立箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彰武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁阵锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1565,11 +1505,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1582,17 +1519,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1905,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:M215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M10"/>
+      <selection activeCell="A216" sqref="A216:XFD221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1921,2023 +1849,1891 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8">
+        <v>2010.01</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12">
-        <v>2010.01</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
+      <c r="C26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="10" t="s">
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="10" t="s">
+      <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="10" t="s">
+      <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="10" t="s">
+      <c r="C30" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B31" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="10" t="s">
+      <c r="C31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="10" t="s">
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B41" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B42" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B43" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B44" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B46" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B47" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B48" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B50" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B51" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B52" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B53" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B54" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B55" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B56" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B57" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B58" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B59" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B60" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B61" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B62" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B63" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B64" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B65" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B66" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B67" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B68" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B69" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B70" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B71" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B72" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B73" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B74" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B75" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B76" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B77" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B78" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B79" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B80" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B81" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B82" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B83" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B84" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B85" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B86" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B87" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B88" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B89" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B90" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B91" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C19" s="4" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B92" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="4" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B93" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B94" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B95" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B96" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B24" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="4" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B97" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B40" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B42" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B43" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B44" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B45" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B46" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B47" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B48" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B49" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B50" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B51" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B52" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B53" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B54" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B55" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B56" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B57" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B58" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B59" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B60" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B61" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B62" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B63" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B64" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B65" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B66" s="6"/>
-      <c r="C66" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B67" s="6"/>
-      <c r="C67" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B68" s="6"/>
-      <c r="C68" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B69" s="6"/>
-      <c r="C69" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B70" s="6"/>
-      <c r="C70" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B71" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B72" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B73" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B74" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B75" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B76" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B77" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B78" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B79" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B80" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B81" s="6"/>
-      <c r="C81" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B82" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B83" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B84" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B85" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B86" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B87" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B88" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B89" s="10" t="s">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B98" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B90" s="10" t="s">
+      <c r="C98" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B99" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B91" s="10" t="s">
+      <c r="C99" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B100" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B92" s="10" t="s">
+      <c r="C100" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B101" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B93" s="10" t="s">
+      <c r="C101" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B102" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B94" s="10" t="s">
+      <c r="C102" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B103" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B95" s="10" t="s">
+      <c r="C103" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B104" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B96" s="10" t="s">
+      <c r="C104" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B105" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B97" s="10" t="s">
+      <c r="C105" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B106" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B98" s="10" t="s">
+      <c r="C106" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B107" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B99" s="10" t="s">
+      <c r="C107" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B108" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B100" s="10" t="s">
+      <c r="C108" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B109" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B101" s="10" t="s">
+      <c r="C109" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B110" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B102" s="10" t="s">
+      <c r="C110" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B111" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B103" s="10" t="s">
+      <c r="C111" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B112" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B104" s="10" t="s">
+      <c r="C112" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B113" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B105" s="10" t="s">
+      <c r="C113" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B114" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B106" s="10" t="s">
+      <c r="C114" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B115" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="10" t="s">
+      <c r="C115" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B116" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="10" t="s">
+      <c r="C116" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B117" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="10" t="s">
+      <c r="C117" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B118" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B110" s="10" t="s">
+      <c r="C118" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B119" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B111" s="10" t="s">
+      <c r="C119" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B120" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B112" s="10" t="s">
+      <c r="C120" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B121" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B113" s="10" t="s">
+      <c r="C121" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B122" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B114" s="10" t="s">
+      <c r="C122" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B123" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B115" s="10" t="s">
+      <c r="C123" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B124" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B116" s="10" t="s">
+      <c r="C124" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B125" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B117" s="10" t="s">
+      <c r="C125" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B126" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B118" s="10" t="s">
+      <c r="C126" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B127" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B119" s="10" t="s">
+      <c r="C127" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B128" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B120" s="10" t="s">
+      <c r="C128" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B129" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B121" s="10" t="s">
+      <c r="C129" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B130" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B122" s="10" t="s">
+      <c r="C130" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B131" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B123" s="10" t="s">
+      <c r="C131" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B132" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B124" s="10" t="s">
+      <c r="C132" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B133" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B125" s="10" t="s">
+      <c r="C133" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B134" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B126" s="10" t="s">
+      <c r="C134" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B135" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B127" s="10" t="s">
+      <c r="C135" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B136" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B128" s="10" t="s">
+      <c r="C136" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B137" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B129" s="10" t="s">
+      <c r="C137" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B138" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B130" s="10" t="s">
+      <c r="C138" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B139" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B131" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B132" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B133" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B134" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B135" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B136" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B137" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B138" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B139" s="10" t="s">
-        <v>366</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B141" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B142" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B143" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B144" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B145" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B146" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B147" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B148" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B149" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C149" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B150" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B151" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B152" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B153" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B141" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B142" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B143" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B144" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B145" s="6"/>
-      <c r="C145" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B146" s="6"/>
-      <c r="C146" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B147" s="6"/>
-      <c r="C147" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B148" s="6"/>
-      <c r="C148" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B149" s="6"/>
-      <c r="C149" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B150" s="10" t="s">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B154" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B151" s="10" t="s">
+      <c r="C154" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B155" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B152" s="10" t="s">
+      <c r="C155" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B156" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B153" s="10" t="s">
+      <c r="C156" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B157" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B154" s="10" t="s">
+      <c r="C157" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B158" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B155" s="10" t="s">
+      <c r="C158" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B159" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B156" s="10" t="s">
+      <c r="C159" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B160" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B157" s="10" t="s">
+      <c r="C160" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B161" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B158" s="10" t="s">
+      <c r="C161" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B162" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B159" s="10" t="s">
+      <c r="C162" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B163" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B164" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B165" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B160" s="10" t="s">
+      <c r="C165" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B166" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B161" s="10" t="s">
+      <c r="C166" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B167" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B162" s="10" t="s">
+      <c r="C167" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B168" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B163" s="1"/>
-      <c r="C163" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B164" s="1"/>
-      <c r="C164" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B165" s="1"/>
-      <c r="C165" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B166" s="10" t="s">
+      <c r="C168" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B169" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B167" s="10" t="s">
+      <c r="C169" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B170" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B168" s="10" t="s">
+      <c r="C170" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B171" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B169" s="10" t="s">
+      <c r="C171" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B172" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C169" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B170" s="10" t="s">
+      <c r="C172" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B173" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B171" s="10" t="s">
+      <c r="C173" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B174" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B172" s="10" t="s">
+      <c r="C174" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B175" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B173" s="10" t="s">
+      <c r="C175" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B176" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C173" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B174" s="10" t="s">
+      <c r="C176" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B177" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C174" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B175" s="10" t="s">
+      <c r="C177" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B178" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B176" s="10" t="s">
+      <c r="C178" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B179" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C176" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B177" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B178" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B179" s="10" t="s">
+      <c r="C179" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B180" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C179" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B180" s="10" t="s">
+      <c r="C180" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B181" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B181" s="10" t="s">
+      <c r="C181" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B182" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C181" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B182" s="1"/>
-      <c r="C182" s="9" t="s">
-        <v>167</v>
+      <c r="C182" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B183" s="1"/>
-      <c r="C183" s="9" t="s">
-        <v>168</v>
+      <c r="B183" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B184" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>184</v>
+      <c r="B184" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B185" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>185</v>
+      <c r="B185" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B186" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>186</v>
+      <c r="B186" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B187" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>187</v>
+      <c r="B187" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B188" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>154</v>
+      <c r="B188" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B189" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>188</v>
+      <c r="B189" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B190" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>189</v>
+      <c r="B190" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B191" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>190</v>
+      <c r="B191" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B192" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>191</v>
+      <c r="B192" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B193" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>154</v>
+      <c r="B193" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B194" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>192</v>
+      <c r="B194" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B195" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>193</v>
+      <c r="B195" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B196" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>194</v>
+      <c r="B196" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B197" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>195</v>
+      <c r="B197" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B198" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>196</v>
+      <c r="B198" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B199" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>197</v>
+      <c r="B199" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B200" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>198</v>
+      <c r="B200" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B201" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>199</v>
+      <c r="B201" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B202" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>200</v>
+      <c r="B202" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B203" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>201</v>
+      <c r="B203" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B204" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>202</v>
+      <c r="B204" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B205" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>203</v>
+      <c r="B205" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B206" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>204</v>
+      <c r="B206" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B207" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>205</v>
+      <c r="B207" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B208" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>206</v>
+      <c r="B208" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B209" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>207</v>
+      <c r="B209" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B210" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>208</v>
+      <c r="B210" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B211" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>209</v>
+      <c r="B211" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B212" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>210</v>
+      <c r="B212" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B213" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>211</v>
+      <c r="B213" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B214" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>212</v>
+      <c r="B214" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B215" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B216" s="10" t="s">
+      <c r="B215" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B217" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B218" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B219" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B220" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B221" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B222" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="C222" s="2" t="s">
+      <c r="C215" s="1" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B223" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B224" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B225" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B226" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B227" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B228" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B229" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B230" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B231" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B232" s="1"/>
-      <c r="C232" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B233" s="1"/>
-      <c r="C233" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B234" s="1"/>
-      <c r="C234" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B235" s="1"/>
-      <c r="C235" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B236" s="1"/>
-      <c r="C236" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B237" s="1"/>
-      <c r="C237" s="9" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
